--- a/estado_de_resultados.xlsx
+++ b/estado_de_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oienh\Documents\R_UNIVERSITY_PROJECTS\5th_Semester\trabajo_finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD86BBE3-A997-4021-8BC2-4CAA06345B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC0BC9-1700-448A-820B-CF753CDE73E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{BE7945D3-4818-4C86-8B7B-D23C39C90CA1}"/>
+    <workbookView xWindow="5400" yWindow="380" windowWidth="16200" windowHeight="9970" xr2:uid="{BE7945D3-4818-4C86-8B7B-D23C39C90CA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Estado de Resultado" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Period Ending:</t>
   </si>
@@ -430,23 +430,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,7 +765,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -806,20 +806,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
-        <v>149204</v>
-      </c>
-      <c r="C3" s="22">
-        <v>127101</v>
-      </c>
-      <c r="D3" s="22">
-        <v>121234</v>
-      </c>
-      <c r="E3" s="24">
-        <v>116444</v>
+      <c r="B3" s="20">
+        <v>513983</v>
+      </c>
+      <c r="C3" s="20">
+        <v>469822</v>
+      </c>
+      <c r="D3" s="20">
+        <v>386064</v>
+      </c>
+      <c r="E3" s="22">
+        <v>280522</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28" customHeight="1">
@@ -827,16 +827,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>149204</v>
+        <v>513983</v>
       </c>
       <c r="C4" s="2">
-        <v>127101</v>
+        <v>469822</v>
       </c>
       <c r="D4" s="2">
-        <v>121234</v>
+        <v>386064</v>
       </c>
       <c r="E4" s="10">
-        <v>116444</v>
+        <v>280522</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="56.5" customHeight="1" thickBot="1">
@@ -861,16 +861,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>85640</v>
+        <v>288831</v>
       </c>
       <c r="C6" s="4">
-        <v>70268</v>
+        <v>272344</v>
       </c>
       <c r="D6" s="4">
-        <v>66424</v>
+        <v>233307</v>
       </c>
       <c r="E6" s="14">
-        <v>66499</v>
+        <v>165536</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1">
@@ -878,16 +878,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>63564</v>
+        <v>225152</v>
       </c>
       <c r="C7" s="4">
-        <v>56833</v>
+        <v>197478</v>
       </c>
       <c r="D7" s="4">
-        <v>54810</v>
+        <v>152757</v>
       </c>
       <c r="E7" s="14">
-        <v>49945</v>
+        <v>114986</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
@@ -895,16 +895,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>146467</v>
+        <v>501735</v>
       </c>
       <c r="C8" s="5">
-        <v>124576</v>
+        <v>444943</v>
       </c>
       <c r="D8" s="5">
-        <v>117917</v>
+        <v>363165</v>
       </c>
       <c r="E8" s="17">
-        <v>112775</v>
+        <v>265981</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="112" customHeight="1">
@@ -912,16 +912,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>31380</v>
+        <v>138428</v>
       </c>
       <c r="C9" s="2">
-        <v>37356</v>
+        <v>116485</v>
       </c>
       <c r="D9" s="2">
-        <v>35935</v>
+        <v>87193</v>
       </c>
       <c r="E9" s="10">
-        <v>33757</v>
+        <v>64313</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="84" customHeight="1">
@@ -929,16 +929,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>28688</v>
+        <v>73213</v>
       </c>
       <c r="C10" s="3">
-        <v>16787</v>
+        <v>56052</v>
       </c>
       <c r="D10" s="3">
-        <v>15468</v>
+        <v>42740</v>
       </c>
       <c r="E10" s="12">
-        <v>12270</v>
+        <v>35931</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="84" customHeight="1">
@@ -946,16 +946,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>-12383</v>
+        <v>16393</v>
       </c>
       <c r="C11" s="3">
-        <v>10204</v>
+        <v>11012</v>
       </c>
       <c r="D11" s="3">
-        <v>9594</v>
+        <v>8432</v>
       </c>
       <c r="E11" s="12">
-        <v>8978</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="126" customHeight="1">
@@ -963,16 +963,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>-694</v>
+        <v>-2367</v>
       </c>
       <c r="C12" s="3">
-        <v>-617</v>
+        <v>-1809</v>
       </c>
       <c r="D12" s="3">
-        <v>-584</v>
-      </c>
-      <c r="E12" s="12">
-        <v>-472</v>
+        <v>-1647</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="84" customHeight="1">
@@ -997,16 +997,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>13836</v>
+        <v>-12763</v>
       </c>
       <c r="C14" s="3">
-        <v>-9422</v>
+        <v>-9141</v>
       </c>
       <c r="D14" s="3">
-        <v>-8920</v>
+        <v>-6860</v>
       </c>
       <c r="E14" s="12">
-        <v>-8257</v>
+        <v>-364</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
@@ -1014,16 +1014,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>2737</v>
+        <v>12248</v>
       </c>
       <c r="C15" s="4">
-        <v>2525</v>
+        <v>24879</v>
       </c>
       <c r="D15" s="4">
-        <v>3317</v>
+        <v>22899</v>
       </c>
       <c r="E15" s="14">
-        <v>3669</v>
+        <v>14541</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="24.5" customHeight="1" thickBot="1">
@@ -1033,14 +1033,14 @@
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>1</v>
+      <c r="C16" s="4">
+        <v>10110</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-224</v>
       </c>
       <c r="E16" s="14">
-        <v>-8595</v>
+        <v>-557</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
@@ -1048,16 +1048,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>-2868</v>
+        <v>-15926</v>
       </c>
       <c r="C17" s="4">
-        <v>880</v>
+        <v>14707</v>
       </c>
       <c r="D17" s="4">
-        <v>-5388</v>
-      </c>
-      <c r="E17" s="14">
-        <v>-8550</v>
+        <v>2394</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1">
@@ -1065,16 +1065,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>6554</v>
+        <v>34113</v>
       </c>
       <c r="C18" s="4">
-        <v>-1296</v>
+        <v>-27983</v>
       </c>
       <c r="D18" s="4">
-        <v>11370</v>
+        <v>-3689</v>
       </c>
       <c r="E18" s="14">
-        <v>17485</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
@@ -1082,16 +1082,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>-949</v>
+        <v>-5939</v>
       </c>
       <c r="C19" s="4">
-        <v>2941</v>
+        <v>38155</v>
       </c>
       <c r="D19" s="4">
-        <v>-2665</v>
+        <v>24194</v>
       </c>
       <c r="E19" s="14">
-        <v>-5266</v>
+        <v>13976</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>-1227</v>
+        <v>-3217</v>
       </c>
       <c r="C20" s="4">
-        <v>69</v>
+        <v>4791</v>
       </c>
       <c r="D20" s="4">
-        <v>-637</v>
+        <v>2863</v>
       </c>
       <c r="E20" s="14">
-        <v>-1422</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
@@ -1116,16 +1116,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>278</v>
+        <v>-2722</v>
       </c>
       <c r="C21" s="4">
-        <v>2872</v>
+        <v>33364</v>
       </c>
       <c r="D21" s="4">
-        <v>-2028</v>
+        <v>21331</v>
       </c>
       <c r="E21" s="14">
-        <v>-3844</v>
+        <v>11602</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1">
@@ -1152,14 +1152,14 @@
       <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>1</v>
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>16</v>
       </c>
       <c r="E23" s="14">
-        <v>-1</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
@@ -1184,16 +1184,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <v>278</v>
+        <v>-2722</v>
       </c>
       <c r="C25" s="4">
-        <v>2872</v>
+        <v>33364</v>
       </c>
       <c r="D25" s="4">
-        <v>-2028</v>
+        <v>21331</v>
       </c>
       <c r="E25" s="14">
-        <v>-3844</v>
+        <v>11588</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="24.5" customHeight="1" thickBot="1">
@@ -1218,16 +1218,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>278</v>
+        <v>-2722</v>
       </c>
       <c r="C27" s="4">
-        <v>2872</v>
+        <v>33364</v>
       </c>
       <c r="D27" s="4">
-        <v>-2028</v>
+        <v>21331</v>
       </c>
       <c r="E27" s="14">
-        <v>-3844</v>
+        <v>11588</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="24.5" customHeight="1" thickBot="1">
@@ -1252,16 +1252,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="4">
-        <v>278</v>
+        <v>-2722</v>
       </c>
       <c r="C29" s="4">
-        <v>2872</v>
+        <v>33364</v>
       </c>
       <c r="D29" s="4">
-        <v>-2028</v>
+        <v>21331</v>
       </c>
       <c r="E29" s="14">
-        <v>-3844</v>
+        <v>11588</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
@@ -1269,16 +1269,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="4">
-        <v>77.41</v>
+        <v>29.03</v>
       </c>
       <c r="C30" s="4">
-        <v>-20.68</v>
+        <v>4.96</v>
       </c>
       <c r="D30" s="4">
-        <v>7</v>
-      </c>
-      <c r="E30" s="14">
-        <v>4.04</v>
+        <v>17.18</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
@@ -1286,16 +1286,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="4">
-        <v>200.59</v>
+        <v>-2751.03</v>
       </c>
       <c r="C31" s="4">
-        <v>2892.68</v>
+        <v>33359.040000000001</v>
       </c>
       <c r="D31" s="4">
-        <v>-2035</v>
+        <v>21313.82</v>
       </c>
       <c r="E31" s="14">
-        <v>-3848.04</v>
+        <v>11588</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="24.5" customHeight="1" thickBot="1">
@@ -1303,16 +1303,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="4">
-        <v>10308</v>
+        <v>10189</v>
       </c>
       <c r="C32" s="4">
-        <v>10331</v>
+        <v>10296</v>
       </c>
       <c r="D32" s="4">
-        <v>10175</v>
+        <v>10198</v>
       </c>
       <c r="E32" s="14">
-        <v>10180</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="32.5" customHeight="1" thickBot="1">
@@ -1320,16 +1320,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="4">
-        <v>1.9E-2</v>
+        <v>-0.27</v>
       </c>
       <c r="C33" s="4">
-        <v>0.28000000000000003</v>
+        <v>3.24</v>
       </c>
       <c r="D33" s="4">
-        <v>-0.2</v>
+        <v>2.09</v>
       </c>
       <c r="E33" s="14">
-        <v>-0.378</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1">
@@ -1350,20 +1350,20 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="20">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C35" s="20">
-        <v>0.125</v>
-      </c>
-      <c r="D35" s="20">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="E35" s="21">
-        <v>0.20200000000000001</v>
+      <c r="B35" s="24">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="C35" s="24">
+        <v>1.42</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1.34</v>
+      </c>
+      <c r="E35" s="25">
+        <v>22.99</v>
       </c>
     </row>
   </sheetData>
